--- a/medicine/Médecine vétérinaire/Entérotoxémie/Entérotoxémie.xlsx
+++ b/medicine/Médecine vétérinaire/Entérotoxémie/Entérotoxémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rotox%C3%A9mie</t>
+          <t>Entérotoxémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’entérotoxémie est une maladie mortelle développée par les ruminants.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rotox%C3%A9mie</t>
+          <t>Entérotoxémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une entérotoxémie est une maladie mortelle après une brève évolution (quelques heures) due au développement anormalement important des bactéries anaérobies Clostridium perfringens et Clostridium sordelli dans l’intestin des ruminants. Ces bactéries synthétisent des toxines qui provoquent l’empoisonnement interne de l’animal. Les animaux les plus fréquemment touchés sont les veaux et agneaux (de 15 jours à 2 mois) et les animaux en croissance[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une entérotoxémie est une maladie mortelle après une brève évolution (quelques heures) due au développement anormalement important des bactéries anaérobies Clostridium perfringens et Clostridium sordelli dans l’intestin des ruminants. Ces bactéries synthétisent des toxines qui provoquent l’empoisonnement interne de l’animal. Les animaux les plus fréquemment touchés sont les veaux et agneaux (de 15 jours à 2 mois) et les animaux en croissance.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rotox%C3%A9mie</t>
+          <t>Entérotoxémie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Mesures prophylactiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La méthode généralement employée pour prévenir la maladie est la vaccination[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La méthode généralement employée pour prévenir la maladie est la vaccination.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rotox%C3%A9mie</t>
+          <t>Entérotoxémie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si le diagnostic est réalisé suffisamment précocement, la maladie peut être traitée par des injections fréquentes de fortes doses de pénicilline, les bactéries incriminées étant sensibles aux antibiothérapies. Toutefois, au vu de la rapidité d’évolution de la maladie, il est très rare de pouvoir intervenir et traiter l’animal malade qui meurt rapidement[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si le diagnostic est réalisé suffisamment précocement, la maladie peut être traitée par des injections fréquentes de fortes doses de pénicilline, les bactéries incriminées étant sensibles aux antibiothérapies. Toutefois, au vu de la rapidité d’évolution de la maladie, il est très rare de pouvoir intervenir et traiter l’animal malade qui meurt rapidement.
 </t>
         </is>
       </c>
